--- a/Files/UploadedFiles/test_local.xlsx
+++ b/Files/UploadedFiles/test_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9576DDAA-D6E1-4B46-BEAA-E8890D92E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831EC579-CF01-41E9-851D-87741F624D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="9855" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
+    <workbookView xWindow="-28920" yWindow="4395" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Class_Ref</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -60,16 +57,16 @@
     <t/>
   </si>
   <si>
-    <t>Kemi</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Tope</t>
-  </si>
-  <si>
-    <t>Alade</t>
+    <t>Zino</t>
+  </si>
+  <si>
+    <t>Lesky</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Adeleke</t>
   </si>
   <si>
     <t>Jimmy</t>
@@ -100,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +132,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,15 +454,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.3125" customWidth="1"/>
     <col min="2" max="2" width="12.26171875" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" customWidth="1"/>
-    <col min="7" max="7" width="18.68359375" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" customWidth="1"/>
+    <col min="4" max="4" width="10.05078125" customWidth="1"/>
+    <col min="5" max="5" width="15.05078125" customWidth="1"/>
+    <col min="6" max="6" width="18.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,112 +474,106 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="3">
         <v>31126</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Files/UploadedFiles/test_local.xlsx
+++ b/Files/UploadedFiles/test_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831EC579-CF01-41E9-851D-87741F624D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC68BC27-5363-4801-B471-5136A08D468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4395" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
+    <workbookView xWindow="-55770" yWindow="11805" windowWidth="21600" windowHeight="11010" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>First Name</t>
   </si>
@@ -57,22 +57,7 @@
     <t/>
   </si>
   <si>
-    <t>Zino</t>
-  </si>
-  <si>
-    <t>Lesky</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Adeleke</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Last Name is required.</t>
+    <t>First Name is required.</t>
   </si>
 </sst>
 </file>
@@ -454,7 +439,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -511,70 +496,26 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>6</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>31126</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/UploadedFiles/test_local.xlsx
+++ b/Files/UploadedFiles/test_local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC68BC27-5363-4801-B471-5136A08D468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E5E62F-68E6-44F8-8EEC-4CCAD11D115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55770" yWindow="11805" windowWidth="21600" windowHeight="11010" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
+    <workbookView xWindow="-27795" yWindow="6645" windowWidth="21600" windowHeight="11010" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>First Name</t>
   </si>
@@ -55,6 +55,60 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t>Amaka</t>
+  </si>
+  <si>
+    <t>Nwagbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atty </t>
+  </si>
+  <si>
+    <t>Adetula</t>
+  </si>
+  <si>
+    <t>Ayesha</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Bukola</t>
+  </si>
+  <si>
+    <t>Omilabu</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Davida</t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delia </t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn </t>
+  </si>
+  <si>
+    <t>Chukwu</t>
   </si>
   <si>
     <t>First Name is required.</t>
@@ -436,16 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0917870-4690-4F49-BB29-94A3C7BF3930}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.3125" customWidth="1"/>
-    <col min="2" max="2" width="12.26171875" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" customWidth="1" style="2"/>
     <col min="3" max="3" width="11.3671875" customWidth="1"/>
     <col min="4" max="4" width="10.05078125" customWidth="1"/>
     <col min="5" max="5" width="15.05078125" customWidth="1"/>
@@ -496,26 +550,216 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="0" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" s="2" customFormat="1">
-      <c r="F5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/UploadedFiles/test_local.xlsx
+++ b/Files/UploadedFiles/test_local.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Documents\MY FILES AND DOCS\DER\Dertrix Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E5E62F-68E6-44F8-8EEC-4CCAD11D115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56DE02-1E66-4D44-9AA3-0D6A7060FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27795" yWindow="6645" windowWidth="21600" windowHeight="11010" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
+    <workbookView xWindow="-28920" yWindow="13965" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>First Name</t>
   </si>
@@ -57,61 +57,16 @@
     <t/>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Runner</t>
-  </si>
-  <si>
-    <t>Amaka</t>
-  </si>
-  <si>
-    <t>Nwagbara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atty </t>
-  </si>
-  <si>
-    <t>Adetula</t>
-  </si>
-  <si>
-    <t>Ayesha</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Bukola</t>
-  </si>
-  <si>
-    <t>Omilabu</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Howell</t>
-  </si>
-  <si>
-    <t>Davida</t>
-  </si>
-  <si>
-    <t>Hanson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delia </t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelyn </t>
-  </si>
-  <si>
-    <t>Chukwu</t>
-  </si>
-  <si>
-    <t>First Name is required.</t>
+    <t xml:space="preserve">JoJo </t>
+  </si>
+  <si>
+    <t>Shelvy</t>
+  </si>
+  <si>
+    <t>Taiwo</t>
+  </si>
+  <si>
+    <t>Aiyepe</t>
   </si>
 </sst>
 </file>
@@ -490,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0917870-4690-4F49-BB29-94A3C7BF3930}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -756,11 +711,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="H12" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Files/UploadedFiles/test_local.xlsx
+++ b/Files/UploadedFiles/test_local.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Documents\MY FILES AND DOCS\DER\Dertrix Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56DE02-1E66-4D44-9AA3-0D6A7060FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1D1ED-DCBF-4923-9C34-EB8B2558DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="13965" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
@@ -57,16 +57,16 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">JoJo </t>
-  </si>
-  <si>
-    <t>Shelvy</t>
-  </si>
-  <si>
-    <t>Taiwo</t>
-  </si>
-  <si>
-    <t>Aiyepe</t>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Tunde</t>
+  </si>
+  <si>
+    <t>Ednut</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Files/UploadedFiles/test_local.xlsx
+++ b/Files/UploadedFiles/test_local.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Documents\MY FILES AND DOCS\DER\Dertrix Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Documents\My Files &amp; Docs\DER\Dertrix Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F1D1ED-DCBF-4923-9C34-EB8B2558DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AD682-567F-4440-9273-E59012BF5F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="13965" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>First Name</t>
   </si>
@@ -57,16 +57,7 @@
     <t/>
   </si>
   <si>
-    <t>Thema</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>Tunde</t>
-  </si>
-  <si>
-    <t>Ednut</t>
+    <t>First Name is required.</t>
   </si>
 </sst>
 </file>
@@ -445,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0917870-4690-4F49-BB29-94A3C7BF3930}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -505,47 +496,24 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="0" t="s">
         <v>6</v>
       </c>
